--- a/DataServicesGantChart.xlsx
+++ b/DataServicesGantChart.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rko5039/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rko5039\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="43160" windowHeight="20860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart-updated" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Identify Institutional Partners</t>
+  </si>
+  <si>
+    <t>Identify Existing Partners</t>
   </si>
 </sst>
 </file>
@@ -141,6 +141,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -166,10 +169,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0456263151242072"/>
+          <c:x val="4.5626315124207201E-2"/>
           <c:y val="0.151691872497275"/>
-          <c:w val="0.94493081424312"/>
-          <c:h val="0.82624214741431"/>
+          <c:w val="0.94493081424311998"/>
+          <c:h val="0.82624214741431001"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -202,7 +205,7 @@
             <c:strRef>
               <c:f>'GanttChart-updated'!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Getting Organized</c:v>
                 </c:pt>
@@ -241,6 +244,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Report Writing</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Identify Existing Partners</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -249,46 +255,49 @@
             <c:numRef>
               <c:f>'GanttChart-updated'!$B$2:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>42488.0</c:v>
+                  <c:v>42488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42491.0</c:v>
+                  <c:v>42491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42491.0</c:v>
+                  <c:v>42491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42579.0</c:v>
+                  <c:v>42579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42579.0</c:v>
+                  <c:v>42579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42584.0</c:v>
+                  <c:v>42584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42591.0</c:v>
+                  <c:v>42591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42612.0</c:v>
+                  <c:v>42612</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42626.0</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42647.0</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42675.0</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42675.0</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42710.0</c:v>
+                  <c:v>42710</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,7 +399,7 @@
             <c:strRef>
               <c:f>'GanttChart-updated'!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Getting Organized</c:v>
                 </c:pt>
@@ -429,6 +438,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Report Writing</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Identify Existing Partners</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -440,43 +452,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,11 +507,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-2103898480"/>
-        <c:axId val="-2103899120"/>
+        <c:axId val="212895040"/>
+        <c:axId val="212892240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2103898480"/>
+        <c:axId val="212895040"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -506,7 +521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103899120"/>
+        <c:crossAx val="212892240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -514,11 +529,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103899120"/>
+        <c:axId val="212892240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42742.0"/>
-          <c:min val="42481.0"/>
+          <c:max val="42742"/>
+          <c:min val="42481"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -551,7 +566,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -571,11 +586,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103898480"/>
+        <c:crossAx val="212895040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="28.0"/>
-        <c:minorUnit val="7.0"/>
+        <c:majorUnit val="28"/>
+        <c:minorUnit val="7"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1469,19 +1484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1515,11 +1530,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="1">
-        <f>B2+C2</f>
+        <f t="shared" ref="F2:F15" si="0">B2+C2</f>
         <v>42538</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1533,11 +1548,11 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>42498</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1551,11 +1566,11 @@
         <v>6</v>
       </c>
       <c r="F4" s="1">
-        <f>B4+C4</f>
+        <f t="shared" si="0"/>
         <v>42581</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1569,11 +1584,11 @@
         <v>6</v>
       </c>
       <c r="F5" s="1">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>42669</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1587,11 +1602,11 @@
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <f>B6+C6</f>
+        <f t="shared" si="0"/>
         <v>42669</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1602,11 +1617,11 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>42605</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1617,11 +1632,11 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <f>B8+C8</f>
+        <f t="shared" si="0"/>
         <v>42612</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1632,11 +1647,11 @@
         <v>60</v>
       </c>
       <c r="F9" s="1">
-        <f>B9+C9</f>
+        <f t="shared" si="0"/>
         <v>42672</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1650,11 +1665,11 @@
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <f>B10+C10</f>
+        <f t="shared" si="0"/>
         <v>42701</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1668,11 +1683,11 @@
         <v>5</v>
       </c>
       <c r="F11" s="1">
-        <f>B11+C11</f>
+        <f t="shared" si="0"/>
         <v>42707</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1683,11 +1698,11 @@
         <v>45</v>
       </c>
       <c r="F12" s="1">
-        <f>B12+C12</f>
+        <f t="shared" si="0"/>
         <v>42720</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1698,11 +1713,11 @@
         <v>45</v>
       </c>
       <c r="F13" s="1">
-        <f>B13+C13</f>
+        <f t="shared" si="0"/>
         <v>42720</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1716,8 +1731,23 @@
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <f>B14+C14</f>
+        <f t="shared" si="0"/>
         <v>42740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42608</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>42668</v>
       </c>
     </row>
   </sheetData>
